--- a/biology/Zoologie/Conus_infrenatus/Conus_infrenatus.xlsx
+++ b/biology/Zoologie/Conus_infrenatus/Conus_infrenatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus infrenatus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille d'une coquille adulte varie entre 24 mm et 50 mm. La coquille est blanc rosé, entourée de lignes articulées de taches marron et blanches. L'apex est rose[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille d'une coquille adulte varie entre 24 mm et 50 mm. La coquille est blanc rosé, entourée de lignes articulées de taches marron et blanches. L'apex est rose.
 </t>
         </is>
       </c>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au large du Transkei et du KwaZulu-Natal, en Afrique du Sud.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est endémique à l'Afrique du Sud avec des spécimens trouvés au large de la côte du Transkei, de Jeffreys Bay à Coffee Bay, et au large de la côte de East London. Cette espèce est intrinsèquement peu commune, mais il n'y a pas de menaces imminentes majeures, à part les menaces localisées de la pollution, de l'envasement, etc. qui peuvent affecter les spécimens peu profonds. Elle est considérée comme une préoccupation mineure[2].
 </t>
         </is>
       </c>
@@ -573,15 +587,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est endémique à l'Afrique du Sud avec des spécimens trouvés au large de la côte du Transkei, de Jeffreys Bay à Coffee Bay, et au large de la côte de East London. Cette espèce est intrinsèquement peu commune, mais il n'y a pas de menaces imminentes majeures, à part les menaces localisées de la pollution, de l'envasement, etc. qui peuvent affecter les spécimens peu profonds. Elle est considérée comme une préoccupation mineure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_infrenatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_infrenatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus infrenatus a été décrite pour la première fois en 1848 par l'éditeur et naturaliste britannique Lovell Augustus Reeve (1814-1865)[3] dans la publication intitulée « Conchologia Iconica, or, illustrations of the shells of molluscous animals »[4],[5].
-Synonymes
-Conus (Sciteconus) infrenatus Reeve, 1848 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus infrenatus a été décrite pour la première fois en 1848 par l'éditeur et naturaliste britannique Lovell Augustus Reeve (1814-1865) dans la publication intitulée « Conchologia Iconica, or, illustrations of the shells of molluscous animals »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_infrenatus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_infrenatus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Sciteconus) infrenatus Reeve, 1848 · appellation alternative
 Conus succinctus A. Adams, 1854 · non accepté
 Dendroconus infrenatus (Reeve, 1848) · non accepté
 Leptoconus (Chelyconus) succinctus A. Adams, 1853 · non accepté (nomen nudum)
